--- a/game/MMO/ExcelMMO/ui.xlsx
+++ b/game/MMO/ExcelMMO/ui.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mtjmmo\branches\qy_yj_dev_2.0\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822007D9-79EE-48C5-B014-EF4AE278C2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65BD4FE-E7CA-4DEB-8FD8-5E54D855954F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2715" windowWidth="22410" windowHeight="13485" tabRatio="984" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="984" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,20 @@
     <sheet name="condition" sheetId="44" r:id="rId17"/>
     <sheet name="gmshop" sheetId="45" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -343,7 +356,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="1070">
   <si>
     <t>common</t>
   </si>
@@ -4508,6 +4521,18 @@
   </si>
   <si>
     <t>xxxGM点</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日GM点使用上限:xxx/xxx</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示用称号特效</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>efx1001137</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -4774,7 +4799,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4988,6 +5013,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5938,13 +5966,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C109" sqref="C109"/>
+      <selection pane="bottomRight" activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7650,6 +7678,20 @@
         <v>0</v>
       </c>
       <c r="E109" s="4"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A110" s="4">
+        <v>22000001200</v>
+      </c>
+      <c r="B110" s="73" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C110" s="84" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D110" s="21">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -9748,10 +9790,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C429"/>
+  <dimension ref="A1:C430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
-      <selection activeCell="A429" sqref="A429:B429"/>
+    <sheetView topLeftCell="A401" workbookViewId="0">
+      <selection activeCell="B439" sqref="B439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13538,9 +13580,17 @@
         <v>1066</v>
       </c>
     </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A430">
+        <v>526</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>1067</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A429 A431:A1048576">
+  <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="3" priority="11"/>
   </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/game/MMO/ExcelMMO/ui.xlsx
+++ b/game/MMO/ExcelMMO/ui.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mtjmmo\branches\qy_yj_dev_2.0\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65BD4FE-E7CA-4DEB-8FD8-5E54D855954F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3966CA9E-B2DF-4FBF-A157-76405223CF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="984" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29625" yWindow="1890" windowWidth="22410" windowHeight="13485" tabRatio="984" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -356,7 +356,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="1072">
   <si>
     <t>common</t>
   </si>
@@ -4524,15 +4524,25 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>今日GM点使用上限:xxx/xxx</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>展示用称号特效</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>efx1001137</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>集点领豪礼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.每日会随机获得集点任务
+2.做任务可以获得点数，点数满后可以领取奖励
+3.每日0点任务会被重置，一定要在0点前集齐任务点奥</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日GM点使用:xxx/xxx</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -5968,11 +5978,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E119" sqref="E119"/>
+      <selection pane="bottomRight" activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7684,10 +7694,10 @@
         <v>22000001200</v>
       </c>
       <c r="B110" s="73" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C110" s="84" t="s">
         <v>1068</v>
-      </c>
-      <c r="C110" s="84" t="s">
-        <v>1069</v>
       </c>
       <c r="D110" s="21">
         <v>0</v>
@@ -9792,8 +9802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C430"/>
   <sheetViews>
-    <sheetView topLeftCell="A401" workbookViewId="0">
-      <selection activeCell="B439" sqref="B439"/>
+    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
+      <selection activeCell="B430" sqref="B430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13585,7 +13595,7 @@
         <v>526</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
     </row>
   </sheetData>
@@ -13804,10 +13814,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14392,6 +14402,17 @@
       </c>
       <c r="D53" s="1" t="s">
         <v>582</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" s="42" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>1069</v>
       </c>
     </row>
   </sheetData>
